--- a/public/sample/usuarios_lista_sample.xlsx
+++ b/public/sample/usuarios_lista_sample.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariful.haque/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="33480" windowHeight="19480"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="33480" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
   <si>
     <t>DISTRITO</t>
   </si>
@@ -131,9 +126,6 @@
     <t>104448956</t>
   </si>
   <si>
-    <t>LITUMA LLIVICURA SONIA JANETH</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -191,9 +183,6 @@
     <t>302207410</t>
   </si>
   <si>
-    <t>ROJAS DUEÑAS ANDREA YULIANA</t>
-  </si>
-  <si>
     <t>062382137</t>
   </si>
   <si>
@@ -230,9 +219,6 @@
     <t>502819626</t>
   </si>
   <si>
-    <t>TORRES ACOSTA PAOLA SOLEDAD</t>
-  </si>
-  <si>
     <t>063064634</t>
   </si>
   <si>
@@ -290,9 +276,6 @@
     <t>603402702</t>
   </si>
   <si>
-    <t xml:space="preserve">GUZMAN BUÑAY SANDRA VIRGINIA                      </t>
-  </si>
-  <si>
     <t>0985763052</t>
   </si>
   <si>
@@ -308,9 +291,6 @@
     <t>603422940</t>
   </si>
   <si>
-    <t>MARTINEZ ACOSTA MONICA ALICIA</t>
-  </si>
-  <si>
     <t>0990579251</t>
   </si>
   <si>
@@ -326,9 +306,6 @@
     <t>701539421</t>
   </si>
   <si>
-    <t>FERNANDEZ GUAMAN ANA MARIA</t>
-  </si>
-  <si>
     <t>062382154</t>
   </si>
   <si>
@@ -368,9 +345,6 @@
     <t>706451234</t>
   </si>
   <si>
-    <t>VACACELA GIA INGRID PAMELA</t>
-  </si>
-  <si>
     <t>0960175032</t>
   </si>
   <si>
@@ -386,107 +360,59 @@
     <t>INGLÉS</t>
   </si>
   <si>
-    <t>0801949439</t>
-  </si>
-  <si>
-    <t>801949439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ CAICEDO MARIA ALEXANDRA                 </t>
-  </si>
-  <si>
-    <t>602781470</t>
-  </si>
-  <si>
-    <t>0939604562</t>
-  </si>
-  <si>
-    <t>natalinazarenorodriguez@gmail.com</t>
-  </si>
-  <si>
-    <t>maria.rodriguez@educacion.gob.ec</t>
-  </si>
-  <si>
-    <t>SAN LORENZO, CABECERA CANTONAL</t>
-  </si>
-  <si>
-    <t>SAN LORENZO</t>
-  </si>
-  <si>
-    <t>ESMERALDAS</t>
-  </si>
-  <si>
-    <t>PROFESOR(A) DE EDUCACIÓN GENERAL BASICA Y BACHILLERATO</t>
-  </si>
-  <si>
-    <t>NOMBRAMIENTO DEFINITIVO (INGRESO CATEGORIA G)</t>
-  </si>
-  <si>
-    <t>INGRESO DE DOCENTE CATEGORIA G GANADORA DE CONCURSO QSM4 EN EL DISTRITO 22D03 AGUARICO</t>
-  </si>
-  <si>
-    <t>HISTORIA Y CIENCIAS SOCIALES BACHILLERATO</t>
-  </si>
-  <si>
-    <t>NINGUNA</t>
-  </si>
-  <si>
-    <t>NEGRO</t>
-  </si>
-  <si>
-    <t>0912385523</t>
-  </si>
-  <si>
-    <t>912385523</t>
-  </si>
-  <si>
-    <t>BOTTO MORAN MARIA MARISOL</t>
-  </si>
-  <si>
-    <t>060000000</t>
-  </si>
-  <si>
-    <t>0960837935</t>
-  </si>
-  <si>
-    <t>maribot1967@gmail.com</t>
-  </si>
-  <si>
-    <t>1205997388</t>
-  </si>
-  <si>
-    <t>CANTOS CONTRERAS GENNESSI RUBY</t>
-  </si>
-  <si>
-    <t>0959808368</t>
-  </si>
-  <si>
-    <t>gennessic2013@gmail.com</t>
-  </si>
-  <si>
-    <t>CAPITÁN AUGUSTO RIVADENEYRA</t>
-  </si>
-  <si>
-    <t>MEDIANTE AUTORIZACION DE ENTREGA DE NOMBRAMIENTO PROVISIONAL CON MEMORANDO NRO. MINEDUC-SDPE-2017- 01048-QUITO-M, DE 13 DE OCTUBRE DE 2017, SUSCRITO POR LA SUBSECRETARIA DE DESARROLLO PROFESIONAL EDUCATIVO ANA ISABEL CANO CIFUENTES.</t>
-  </si>
-  <si>
-    <t>MATEMÁTICA</t>
-  </si>
-  <si>
-    <t>22B00083</t>
-  </si>
-  <si>
-    <t>SAN FRANCISCO DE ASIS</t>
-  </si>
-  <si>
     <t>DOCENTE / TEACHER</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>SONIA JANETH</t>
+  </si>
+  <si>
+    <t>ANDREA YULIANA</t>
+  </si>
+  <si>
+    <t>ROJAS DUEÑAS</t>
+  </si>
+  <si>
+    <t>LITUMA LLIVICURA</t>
+  </si>
+  <si>
+    <t>TORRES ACOSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAOLA SOLEDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUZMAN BUÑAY                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDRA VIRGINIA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ ACOSTA </t>
+  </si>
+  <si>
+    <t>MONICA ALICIA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ GUAMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACACELA GIA </t>
+  </si>
+  <si>
+    <t>INGRID PAMELA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,23 +786,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,74 +821,77 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -979,76 +908,79 @@
         <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6">
+        <v>29760</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6">
-        <v>29760</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="6">
+        <v>42675</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="6">
-        <v>42675</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>48</v>
+      <c r="AB2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="46.35" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1059,82 +991,85 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6">
+        <v>33560</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="6">
-        <v>33560</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="6">
+        <v>42705</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="6">
-        <v>42705</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AB3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1145,82 +1080,85 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="6">
+        <v>30674</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="6">
-        <v>30674</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="M4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="T4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="X4" s="6">
+        <v>43101</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>43465</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="6">
-        <v>43101</v>
-      </c>
-      <c r="X4" s="6">
-        <v>43465</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>63</v>
+      <c r="AB4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1231,82 +1169,83 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="6">
+        <v>32859</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="K5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="6">
-        <v>32859</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="M5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="6">
+        <v>43101</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>43465</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" s="6">
-        <v>43101</v>
-      </c>
-      <c r="X5" s="6">
-        <v>43465</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>63</v>
+      <c r="AB5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="27" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1317,82 +1256,85 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="6">
+        <v>29315</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="M6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="6">
-        <v>29315</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" s="6">
+        <v>43101</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>43465</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="6">
-        <v>43101</v>
-      </c>
-      <c r="X6" s="6">
-        <v>43465</v>
-      </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>63</v>
+      <c r="AB6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="46.35" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1403,82 +1345,85 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="6">
+        <v>30192</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="6">
-        <v>30192</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="X7" s="6">
+        <v>43101</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>43465</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W7" s="6">
-        <v>43101</v>
-      </c>
-      <c r="X7" s="6">
-        <v>43465</v>
-      </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>63</v>
+      <c r="AB7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="37.35" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1489,80 +1434,83 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="6">
+        <v>22554</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="6">
-        <v>22554</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="T8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="U8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="V8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>41673</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="46.35" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1573,335 +1521,84 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="6">
+        <v>34517</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="6">
-        <v>34517</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <v>42716</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="6">
-        <v>27510</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" s="6">
-        <v>42705</v>
-      </c>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="6">
-        <v>24834</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="6">
-        <v>43101</v>
-      </c>
-      <c r="X11" s="6">
-        <v>43465</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="6">
-        <v>33198</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W12" s="6">
-        <v>43040</v>
-      </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>63</v>
+      <c r="AB9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>